--- a/BasesDeDados/Base1/Codigos/FeaturesContracoes.xlsx
+++ b/BasesDeDados/Base1/Codigos/FeaturesContracoes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Desktop\trabalho1-fuzzy\BasesDeDados\Base1\Codigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Desktop\Trabalho1-Fuzzy\BasesDeDados\Base1\Codigos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -472,22 +472,22 @@
         <v>35</v>
       </c>
       <c r="C2">
-        <v>8.3655433535392079E-3</v>
+        <v>8.3655486168363446E-3</v>
       </c>
       <c r="D2">
-        <v>1.239243434562232E-2</v>
+        <v>1.2392441067237437E-2</v>
       </c>
       <c r="E2">
-        <v>1.0378988849580764E-2</v>
+        <v>1.0378994842036891E-2</v>
       </c>
       <c r="F2">
-        <v>5.0690430946358599E-5</v>
+        <v>5.0690472197583332E-5</v>
       </c>
       <c r="G2">
-        <v>1.0441869182224886E-4</v>
+        <v>1.044187630399916E-4</v>
       </c>
       <c r="H2">
-        <v>7.7554561384303732E-5</v>
+        <v>7.7554617618787462E-5</v>
       </c>
       <c r="I2">
         <v>121.22500000000001</v>
@@ -507,22 +507,22 @@
         <v>32.86</v>
       </c>
       <c r="C3">
-        <v>1.1756515065161949E-2</v>
+        <v>1.1756516730181649E-2</v>
       </c>
       <c r="D3">
-        <v>1.5031193067079783E-2</v>
+        <v>1.5031199528194469E-2</v>
       </c>
       <c r="E3">
-        <v>1.3635924823134159E-2</v>
+        <v>1.3635929262872487E-2</v>
       </c>
       <c r="F3">
-        <v>8.1092113442648683E-5</v>
+        <v>8.1092133221062547E-5</v>
       </c>
       <c r="G3">
-        <v>1.9004384672595458E-4</v>
+        <v>1.9004391172487386E-4</v>
       </c>
       <c r="H3">
-        <v>1.4585347333127493E-4</v>
+        <v>1.4585352457455238E-4</v>
       </c>
       <c r="I3">
         <v>63.083333333333343</v>
@@ -542,22 +542,22 @@
         <v>36.57</v>
       </c>
       <c r="C4">
-        <v>1.5738591373451458E-3</v>
+        <v>1.5738587823374787E-3</v>
       </c>
       <c r="D4">
-        <v>1.0281370518745931E-2</v>
+        <v>1.0281374025687372E-2</v>
       </c>
       <c r="E4">
-        <v>5.1861797393594105E-3</v>
+        <v>5.1861811791361345E-3</v>
       </c>
       <c r="F4">
-        <v>2.0341692623169581E-6</v>
+        <v>2.0341702229984267E-6</v>
       </c>
       <c r="G4">
-        <v>7.6152098957558346E-5</v>
+        <v>7.6152148450904386E-5</v>
       </c>
       <c r="H4">
-        <v>2.5029428117631295E-5</v>
+        <v>2.5029440195197327E-5</v>
       </c>
       <c r="I4">
         <v>44.660714285714285</v>
@@ -577,22 +577,22 @@
         <v>36.57</v>
       </c>
       <c r="C5">
-        <v>2.5819374511259455E-3</v>
+        <v>2.5819384831023491E-3</v>
       </c>
       <c r="D5">
-        <v>1.2523180629731068E-2</v>
+        <v>1.2523185104383531E-2</v>
       </c>
       <c r="E5">
-        <v>6.0724769812451358E-3</v>
+        <v>6.0724794616662681E-3</v>
       </c>
       <c r="F5">
-        <v>4.2315952210095611E-6</v>
+        <v>4.231594397952576E-6</v>
       </c>
       <c r="G5">
-        <v>1.7167901068241792E-4</v>
+        <v>1.7167906876121113E-4</v>
       </c>
       <c r="H5">
-        <v>3.9205835593881565E-5</v>
+        <v>3.9205853947959425E-5</v>
       </c>
       <c r="I5">
         <v>34.445</v>
@@ -612,22 +612,22 @@
         <v>36.43</v>
       </c>
       <c r="C6">
-        <v>1.208730391947902E-3</v>
+        <v>1.2087314300010194E-3</v>
       </c>
       <c r="D6">
-        <v>6.7674741841812708E-3</v>
+        <v>6.7674777143736731E-3</v>
       </c>
       <c r="E6">
-        <v>3.5079672171205558E-3</v>
+        <v>3.5079688820518207E-3</v>
       </c>
       <c r="F6">
-        <v>1.0599167225617873E-6</v>
+        <v>1.0599173213297661E-6</v>
       </c>
       <c r="G6">
-        <v>4.5527648642345164E-5</v>
+        <v>4.5527669762215374E-5</v>
       </c>
       <c r="H6">
-        <v>1.4345657826922772E-5</v>
+        <v>1.4345665138865381E-5</v>
       </c>
       <c r="I6">
         <v>37.077500000000001</v>
@@ -647,22 +647,22 @@
         <v>33</v>
       </c>
       <c r="C7">
-        <v>1.5463383337019786E-3</v>
+        <v>1.546340067375231E-3</v>
       </c>
       <c r="D7">
-        <v>6.7674741841812708E-3</v>
+        <v>6.7674777143736731E-3</v>
       </c>
       <c r="E7">
-        <v>3.6757287799213888E-3</v>
+        <v>3.6757303844343441E-3</v>
       </c>
       <c r="F7">
-        <v>1.3448468704285373E-6</v>
+        <v>1.3448477466173778E-6</v>
       </c>
       <c r="G7">
-        <v>4.5527648642345164E-5</v>
+        <v>4.5527669762215374E-5</v>
       </c>
       <c r="H7">
-        <v>1.5309904860130484E-5</v>
+        <v>1.5309912067525897E-5</v>
       </c>
       <c r="I7">
         <v>48.795000000000002</v>
@@ -682,22 +682,22 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>1.5463383337019786E-3</v>
+        <v>1.546340067375231E-3</v>
       </c>
       <c r="D8">
-        <v>6.7674741841812708E-3</v>
+        <v>6.7674777143736731E-3</v>
       </c>
       <c r="E8">
-        <v>3.9001371544867833E-3</v>
+        <v>3.900138758101889E-3</v>
       </c>
       <c r="F8">
-        <v>1.3448468704285373E-6</v>
+        <v>1.3448477466173778E-6</v>
       </c>
       <c r="G8">
-        <v>4.5527648642345164E-5</v>
+        <v>4.5527669762215374E-5</v>
       </c>
       <c r="H8">
-        <v>1.679731783188671E-5</v>
+        <v>1.6797325481840883E-5</v>
       </c>
       <c r="I8">
         <v>51.547500000000007</v>
@@ -717,22 +717,22 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>1.5463383337019786E-3</v>
+        <v>1.546340067375231E-3</v>
       </c>
       <c r="D9">
-        <v>2.0446961487671337E-2</v>
+        <v>2.0446961678609221E-2</v>
       </c>
       <c r="E9">
-        <v>4.4444882202517464E-3</v>
+        <v>4.4444897316661663E-3</v>
       </c>
       <c r="F9">
-        <v>1.3448468704285373E-6</v>
+        <v>1.3448477466173778E-6</v>
       </c>
       <c r="G9">
-        <v>6.3278704227937564E-4</v>
+        <v>6.3278718487983616E-4</v>
       </c>
       <c r="H9">
-        <v>4.5906475484208082E-5</v>
+        <v>4.5906488602050797E-5</v>
       </c>
       <c r="I9">
         <v>29.867500000000003</v>
@@ -752,22 +752,22 @@
         <v>36.43</v>
       </c>
       <c r="C10">
-        <v>1.5463383337019786E-3</v>
+        <v>1.546340067375231E-3</v>
       </c>
       <c r="D10">
-        <v>9.3509972924568172E-3</v>
+        <v>9.3509992592304622E-3</v>
       </c>
       <c r="E10">
-        <v>5.4687966745690531E-3</v>
+        <v>5.4687991843864053E-3</v>
       </c>
       <c r="F10">
-        <v>1.3448468704285373E-6</v>
+        <v>1.3448477466173778E-6</v>
       </c>
       <c r="G10">
-        <v>1.0420138110920787E-4</v>
+        <v>1.0420141582554721E-4</v>
       </c>
       <c r="H10">
-        <v>3.3097302163860981E-5</v>
+        <v>3.3097321409096093E-5</v>
       </c>
       <c r="I10">
         <v>52.035000000000004</v>
@@ -787,22 +787,22 @@
         <v>34.71</v>
       </c>
       <c r="C11">
-        <v>1.5463383337019786E-3</v>
+        <v>1.546340067375231E-3</v>
       </c>
       <c r="D11">
-        <v>1.9044174818520682E-2</v>
+        <v>1.9044179940748713E-2</v>
       </c>
       <c r="E11">
-        <v>5.4071314346996512E-3</v>
+        <v>5.4071337017811E-3</v>
       </c>
       <c r="F11">
-        <v>1.3448468704285373E-6</v>
+        <v>1.3448477466173778E-6</v>
       </c>
       <c r="G11">
-        <v>3.202708757962265E-4</v>
+        <v>3.2027098267285432E-4</v>
       </c>
       <c r="H11">
-        <v>3.9407716201351538E-5</v>
+        <v>3.9407733660958758E-5</v>
       </c>
       <c r="I11">
         <v>57.127499999999998</v>
